--- a/OldFaithful.xlsx
+++ b/OldFaithful.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seansmith/GitHub/Stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seansmith/GitHub/statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="5960" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="20540" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -370,7 +370,7 @@
     <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -383,8 +383,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -397,8 +403,18 @@
       <c r="D2">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="str">
+        <f>IF(AND(C2&gt;=56,C2&lt;=62),TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="L2">
+        <v>17</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -411,8 +427,18 @@
       <c r="D3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">IF(AND(C3&gt;=56,C3&lt;=62),TRUE,"")</f>
+        <v/>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -425,8 +451,18 @@
       <c r="D4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -439,8 +475,18 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -453,8 +499,18 @@
       <c r="D6">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L6">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -467,8 +523,18 @@
       <c r="D7">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -481,8 +547,15 @@
       <c r="D8">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -495,8 +568,12 @@
       <c r="D9">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -509,8 +586,12 @@
       <c r="D10">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -523,8 +604,12 @@
       <c r="D11">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -537,8 +622,12 @@
       <c r="D12">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -551,8 +640,12 @@
       <c r="D13">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -565,8 +658,12 @@
       <c r="D14">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -579,8 +676,12 @@
       <c r="D15">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -593,8 +694,12 @@
       <c r="D16">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -607,8 +712,12 @@
       <c r="D17">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -621,8 +730,12 @@
       <c r="D18">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -635,8 +748,12 @@
       <c r="D19">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -649,8 +766,12 @@
       <c r="D20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -663,8 +784,12 @@
       <c r="D21">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -677,8 +802,12 @@
       <c r="D22">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -691,8 +820,12 @@
       <c r="D23">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -705,8 +838,12 @@
       <c r="D24">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -719,8 +856,12 @@
       <c r="D25">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -733,8 +874,12 @@
       <c r="D26">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -747,8 +892,12 @@
       <c r="D27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -761,8 +910,12 @@
       <c r="D28">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -775,8 +928,12 @@
       <c r="D29">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -789,8 +946,12 @@
       <c r="D30">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -803,8 +964,12 @@
       <c r="D31">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -817,8 +982,12 @@
       <c r="D32">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -831,8 +1000,12 @@
       <c r="D33">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -845,8 +1018,12 @@
       <c r="D34">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -859,8 +1036,12 @@
       <c r="D35">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -873,8 +1054,12 @@
       <c r="D36">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -887,8 +1072,12 @@
       <c r="D37">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -901,8 +1090,12 @@
       <c r="D38">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -915,8 +1108,12 @@
       <c r="D39">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -929,8 +1126,12 @@
       <c r="D40">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -943,8 +1144,12 @@
       <c r="D41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -957,8 +1162,12 @@
       <c r="D42">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -971,8 +1180,12 @@
       <c r="D43">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -985,8 +1198,12 @@
       <c r="D44">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -999,8 +1216,12 @@
       <c r="D45">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1013,8 +1234,12 @@
       <c r="D46">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1027,8 +1252,12 @@
       <c r="D47">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1041,8 +1270,12 @@
       <c r="D48">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1055,8 +1288,12 @@
       <c r="D49">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1069,8 +1306,12 @@
       <c r="D50">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1083,8 +1324,12 @@
       <c r="D51">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1097,8 +1342,12 @@
       <c r="D52">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1111,8 +1360,12 @@
       <c r="D53">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1125,8 +1378,12 @@
       <c r="D54">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1139,8 +1396,12 @@
       <c r="D55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1153,8 +1414,12 @@
       <c r="D56">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1167,8 +1432,12 @@
       <c r="D57">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1181,8 +1450,12 @@
       <c r="D58">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1195,8 +1468,12 @@
       <c r="D59">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1209,8 +1486,12 @@
       <c r="D60">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1223,8 +1504,12 @@
       <c r="D61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1237,8 +1522,12 @@
       <c r="D62">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1251,8 +1540,12 @@
       <c r="D63">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1265,8 +1558,12 @@
       <c r="D64">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1279,8 +1576,12 @@
       <c r="D65">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1293,8 +1594,12 @@
       <c r="D66">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1307,8 +1612,12 @@
       <c r="D67">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E95" si="1">IF(AND(C67&gt;=56,C67&lt;=62),TRUE,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1321,8 +1630,12 @@
       <c r="D68">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1335,8 +1648,12 @@
       <c r="D69">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1349,8 +1666,12 @@
       <c r="D70">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1363,8 +1684,12 @@
       <c r="D71">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1377,8 +1702,12 @@
       <c r="D72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1391,8 +1720,12 @@
       <c r="D73">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1405,8 +1738,12 @@
       <c r="D74">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1419,8 +1756,12 @@
       <c r="D75">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1433,8 +1774,12 @@
       <c r="D76">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1447,8 +1792,12 @@
       <c r="D77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1461,8 +1810,12 @@
       <c r="D78">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1475,8 +1828,12 @@
       <c r="D79">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1489,8 +1846,12 @@
       <c r="D80">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1503,8 +1864,12 @@
       <c r="D81">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1517,8 +1882,12 @@
       <c r="D82">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1531,8 +1900,12 @@
       <c r="D83">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1545,8 +1918,12 @@
       <c r="D84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1559,8 +1936,12 @@
       <c r="D85">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1573,8 +1954,12 @@
       <c r="D86">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1587,8 +1972,12 @@
       <c r="D87">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1601,8 +1990,12 @@
       <c r="D88">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1615,8 +2008,12 @@
       <c r="D89">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1629,8 +2026,12 @@
       <c r="D90">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1643,8 +2044,12 @@
       <c r="D91">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1657,8 +2062,12 @@
       <c r="D92">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1671,8 +2080,12 @@
       <c r="D93">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1685,8 +2098,12 @@
       <c r="D94">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1698,6 +2115,10 @@
       </c>
       <c r="D95">
         <v>2</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
   </sheetData>
